--- a/Automation2020/src/test/resources/Excel_Data/Test_Data.xlsx
+++ b/Automation2020/src/test/resources/Excel_Data/Test_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,19 +38,12 @@
   </si>
   <si>
     <t>danish.ali+2@hipster-inc.com</t>
-  </si>
-  <si>
-    <t>Login Successful.</t>
-  </si>
-  <si>
-    <t>Login Failed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -393,14 +386,14 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="1" width="21.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="34.33203125" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="21.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="34.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="21.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -427,9 +420,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
@@ -441,9 +432,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
@@ -455,9 +444,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
@@ -469,9 +456,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
@@ -483,9 +468,7 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
@@ -497,9 +480,7 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D7"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
@@ -511,9 +492,7 @@
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
+      <c r="D8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
